--- a/data/new_posteriors/elementary_skills/complex_model/noleak/unconstrained/results_model2b_noleak_unconstrained.xlsx
+++ b/data/new_posteriors/elementary_skills/complex_model/noleak/unconstrained/results_model2b_noleak_unconstrained.xlsx
@@ -1654,7 +1654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL3" t="n" s="85">
-        <v>0.9954141046993794</v>
+        <v>0.9952307131731956</v>
       </c>
       <c r="AM3" t="n" s="85">
         <v>0.689381448209186</v>
@@ -1663,7 +1663,7 @@
         <v>0.9733236888284345</v>
       </c>
       <c r="AO3" t="n" s="85">
-        <v>0.9999982226183082</v>
+        <v>0.9999981666835683</v>
       </c>
       <c r="AP3" t="n" s="85">
         <v>0.7612554792181764</v>
@@ -2904,7 +2904,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL13" t="n" s="85">
-        <v>0.8033483027069229</v>
+        <v>0.7913906820296583</v>
       </c>
       <c r="AM13" t="n" s="85">
         <v>0.7497457157780186</v>
@@ -2913,7 +2913,7 @@
         <v>0.9908364386592606</v>
       </c>
       <c r="AO13" t="n" s="85">
-        <v>0.9946040640095766</v>
+        <v>0.9942643518485211</v>
       </c>
       <c r="AP13" t="n" s="85">
         <v>0.9815351922985185</v>
@@ -4529,7 +4529,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL26" t="n" s="85">
-        <v>0.9343875456379801</v>
+        <v>0.9243734463684313</v>
       </c>
       <c r="AM26" t="n" s="85">
         <v>0.707320422092134</v>
@@ -4538,7 +4538,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO26" t="n" s="85">
-        <v>0.9999127561230521</v>
+        <v>0.9999009016945086</v>
       </c>
       <c r="AP26" t="n" s="85">
         <v>0.7638371923193019</v>
@@ -4654,7 +4654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL27" t="n" s="85">
-        <v>0.8177026725731333</v>
+        <v>0.8117565009973088</v>
       </c>
       <c r="AM27" t="n" s="85">
         <v>0.7738750602538691</v>
@@ -4663,7 +4663,7 @@
         <v>0.9942325286544584</v>
       </c>
       <c r="AO27" t="n" s="85">
-        <v>0.99430912449259</v>
+        <v>0.9941074054006103</v>
       </c>
       <c r="AP27" t="n" s="85">
         <v>0.8834945618414939</v>
@@ -4672,7 +4672,7 @@
         <v>0.9982806742949782</v>
       </c>
       <c r="AR27" t="n" s="85">
-        <v>0.9938804414124837</v>
+        <v>0.9936890720865911</v>
       </c>
     </row>
     <row r="28">
@@ -5029,7 +5029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL30" t="n" s="85">
-        <v>0.888334679193704</v>
+        <v>0.8694611678875295</v>
       </c>
       <c r="AM30" t="n" s="85">
         <v>0.6645296339106109</v>
@@ -5038,7 +5038,7 @@
         <v>0.946983429556143</v>
       </c>
       <c r="AO30" t="n" s="85">
-        <v>0.9893913487014476</v>
+        <v>0.9874182668457452</v>
       </c>
       <c r="AP30" t="n" s="85">
         <v>0.6416500389648642</v>
@@ -5047,7 +5047,7 @@
         <v>0.8048537392608084</v>
       </c>
       <c r="AR30" t="n" s="85">
-        <v>0.7638292929611092</v>
+        <v>0.7321424839779893</v>
       </c>
     </row>
     <row r="31">
@@ -5279,7 +5279,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL32" t="n" s="85">
-        <v>0.8018678200979035</v>
+        <v>0.7659782893940514</v>
       </c>
       <c r="AM32" t="n" s="85">
         <v>0.6645296339106109</v>
@@ -5288,7 +5288,7 @@
         <v>0.9437366031299895</v>
       </c>
       <c r="AO32" t="n" s="85">
-        <v>0.9743490568399796</v>
+        <v>0.9687566193686983</v>
       </c>
       <c r="AP32" t="n" s="85">
         <v>0.6416500389648642</v>
@@ -5297,7 +5297,7 @@
         <v>0.7860703447142036</v>
       </c>
       <c r="AR32" t="n" s="85">
-        <v>0.663338493449363</v>
+        <v>0.6185660392331956</v>
       </c>
     </row>
     <row r="33">
@@ -5404,7 +5404,7 @@
         <v>0.6023420472614818</v>
       </c>
       <c r="AL33" t="n" s="85">
-        <v>0.5798361368981556</v>
+        <v>0.5422201470128805</v>
       </c>
       <c r="AM33" t="n" s="85">
         <v>0.6428902256945466</v>
@@ -5413,7 +5413,7 @@
         <v>0.9441319387198494</v>
       </c>
       <c r="AO33" t="n" s="85">
-        <v>0.9216447700344469</v>
+        <v>0.9119347425813944</v>
       </c>
       <c r="AP33" t="n" s="85">
         <v>0.6334177942361737</v>
@@ -5422,7 +5422,7 @@
         <v>0.8977055024304461</v>
       </c>
       <c r="AR33" t="n" s="85">
-        <v>0.6231661589604559</v>
+        <v>0.5927828157656977</v>
       </c>
     </row>
     <row r="34">
@@ -5529,7 +5529,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL34" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM34" t="n" s="85">
         <v>0.707320422092134</v>
@@ -5538,7 +5538,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO34" t="n" s="85">
-        <v>0.9677770147784481</v>
+        <v>0.963557794037215</v>
       </c>
       <c r="AP34" t="n" s="85">
         <v>0.7712721347904139</v>
@@ -5547,7 +5547,7 @@
         <v>0.9695477159413242</v>
       </c>
       <c r="AR34" t="n" s="85">
-        <v>0.8610794371546266</v>
+        <v>0.8451107137525462</v>
       </c>
     </row>
     <row r="35">
@@ -5654,7 +5654,7 @@
         <v>0.5645357755671127</v>
       </c>
       <c r="AL35" t="n" s="85">
-        <v>0.6200269269729262</v>
+        <v>0.5785414437166431</v>
       </c>
       <c r="AM35" t="n" s="85">
         <v>0.5980696491826273</v>
@@ -5663,7 +5663,7 @@
         <v>0.8656179093965699</v>
       </c>
       <c r="AO35" t="n" s="85">
-        <v>0.8530289602839439</v>
+        <v>0.8307018728082315</v>
       </c>
       <c r="AP35" t="n" s="85">
         <v>0.4474990134969952</v>
@@ -5672,7 +5672,7 @@
         <v>0.4523193555172054</v>
       </c>
       <c r="AR35" t="n" s="85">
-        <v>0.17568800428947337</v>
+        <v>0.1532162220418715</v>
       </c>
     </row>
     <row r="36">
@@ -5779,7 +5779,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL36" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM36" t="n" s="85">
         <v>0.707320422092134</v>
@@ -5788,7 +5788,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO36" t="n" s="85">
-        <v>0.9630705840175987</v>
+        <v>0.9582616892691526</v>
       </c>
       <c r="AP36" t="n" s="85">
         <v>0.6814231609075975</v>
@@ -5797,7 +5797,7 @@
         <v>0.8807437681678696</v>
       </c>
       <c r="AR36" t="n" s="85">
-        <v>0.5592651002836869</v>
+        <v>0.5276349638751165</v>
       </c>
     </row>
     <row r="37">
@@ -5904,7 +5904,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL37" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM37" t="n" s="85">
         <v>0.707320422092134</v>
@@ -5913,7 +5913,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO37" t="n" s="85">
-        <v>0.9677770147784481</v>
+        <v>0.963557794037215</v>
       </c>
       <c r="AP37" t="n" s="85">
         <v>0.7712721347904139</v>
@@ -5922,7 +5922,7 @@
         <v>0.9695477159413242</v>
       </c>
       <c r="AR37" t="n" s="85">
-        <v>0.8610794371546266</v>
+        <v>0.8451107137525462</v>
       </c>
     </row>
     <row r="38">
@@ -6029,7 +6029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL38" t="n" s="85">
-        <v>0.9165806032819345</v>
+        <v>0.9070876165773342</v>
       </c>
       <c r="AM38" t="n" s="85">
         <v>0.7365254207492109</v>
@@ -6038,7 +6038,7 @@
         <v>0.98634340241469</v>
       </c>
       <c r="AO38" t="n" s="85">
-        <v>0.999896320787689</v>
+        <v>0.9998857605240632</v>
       </c>
       <c r="AP38" t="n" s="85">
         <v>0.9013303209989717</v>
@@ -6047,7 +6047,7 @@
         <v>0.9992165205227052</v>
       </c>
       <c r="AR38" t="n" s="85">
-        <v>0.9999214869109788</v>
+        <v>0.9999131386890326</v>
       </c>
     </row>
     <row r="39">
@@ -6154,7 +6154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL39" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM39" t="n" s="85">
         <v>0.707320422092134</v>
@@ -6163,7 +6163,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO39" t="n" s="85">
-        <v>0.966607633694612</v>
+        <v>0.9622412702524245</v>
       </c>
       <c r="AP39" t="n" s="85">
         <v>0.7712721347904139</v>
@@ -6172,7 +6172,7 @@
         <v>0.9689644195416192</v>
       </c>
       <c r="AR39" t="n" s="85">
-        <v>0.8547206498180948</v>
+        <v>0.8381583732159099</v>
       </c>
     </row>
     <row r="40">
@@ -6279,7 +6279,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL40" t="n" s="85">
-        <v>0.7531789842109715</v>
+        <v>0.7177460110658828</v>
       </c>
       <c r="AM40" t="n" s="85">
         <v>0.6872852445581444</v>
@@ -6288,7 +6288,7 @@
         <v>0.9629356791203211</v>
       </c>
       <c r="AO40" t="n" s="85">
-        <v>0.9444732190025912</v>
+        <v>0.934926672642693</v>
       </c>
       <c r="AP40" t="n" s="85">
         <v>0.7589551846169147</v>
@@ -6297,7 +6297,7 @@
         <v>0.9578949466981228</v>
       </c>
       <c r="AR40" t="n" s="85">
-        <v>0.8050514504736364</v>
+        <v>0.7792204192438673</v>
       </c>
     </row>
     <row r="41">
@@ -6404,7 +6404,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL41" t="n" s="85">
-        <v>0.9926798170449244</v>
+        <v>0.9924238327420205</v>
       </c>
       <c r="AM41" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -6413,7 +6413,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO41" t="n" s="85">
-        <v>0.9999999676318683</v>
+        <v>0.9999999666324014</v>
       </c>
       <c r="AP41" t="n" s="85">
         <v>0.9672477334122705</v>
@@ -6529,7 +6529,7 @@
         <v>0.6958389670013512</v>
       </c>
       <c r="AL42" t="n" s="85">
-        <v>0.853059265725588</v>
+        <v>0.8349010406423407</v>
       </c>
       <c r="AM42" t="n" s="85">
         <v>0.6960942076896088</v>
@@ -6538,7 +6538,7 @@
         <v>0.9281081604493764</v>
       </c>
       <c r="AO42" t="n" s="85">
-        <v>0.9562025428142975</v>
+        <v>0.9498958426758971</v>
       </c>
       <c r="AP42" t="n" s="85">
         <v>0.5659352122200141</v>
@@ -6547,7 +6547,7 @@
         <v>0.6656199186678168</v>
       </c>
       <c r="AR42" t="n" s="85">
-        <v>0.4755500250347004</v>
+        <v>0.4424883618519131</v>
       </c>
     </row>
     <row r="43">
@@ -6654,7 +6654,7 @@
         <v>0.76664393192103</v>
       </c>
       <c r="AL43" t="n" s="85">
-        <v>0.7667106614121695</v>
+        <v>0.7449092383756875</v>
       </c>
       <c r="AM43" t="n" s="85">
         <v>0.7365254207492109</v>
@@ -6663,7 +6663,7 @@
         <v>0.9799433642362299</v>
       </c>
       <c r="AO43" t="n" s="85">
-        <v>0.9736280060610856</v>
+        <v>0.9710194295782814</v>
       </c>
       <c r="AP43" t="n" s="85">
         <v>0.7930472218802039</v>
@@ -6672,7 +6672,7 @@
         <v>0.93007124314128</v>
       </c>
       <c r="AR43" t="n" s="85">
-        <v>0.7291578450588593</v>
+        <v>0.7087453482787416</v>
       </c>
     </row>
     <row r="44">
@@ -6779,7 +6779,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL44" t="n" s="85">
-        <v>0.8254305207924925</v>
+        <v>0.8023052877531478</v>
       </c>
       <c r="AM44" t="n" s="85">
         <v>0.707320422092134</v>
@@ -6788,7 +6788,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO44" t="n" s="85">
-        <v>0.9924898393937261</v>
+        <v>0.9914779780528259</v>
       </c>
       <c r="AP44" t="n" s="85">
         <v>0.7712721347904139</v>
@@ -6797,7 +6797,7 @@
         <v>0.9726396526753978</v>
       </c>
       <c r="AR44" t="n" s="85">
-        <v>0.962617628703399</v>
+        <v>0.9577478626825844</v>
       </c>
     </row>
     <row r="45">
@@ -6904,7 +6904,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL45" t="n" s="85">
-        <v>0.7852461355521612</v>
+        <v>0.7655017332516664</v>
       </c>
       <c r="AM45" t="n" s="85">
         <v>0.7302888589808972</v>
@@ -6913,7 +6913,7 @@
         <v>0.9857218809334982</v>
       </c>
       <c r="AO45" t="n" s="85">
-        <v>0.9821150216283135</v>
+        <v>0.9804179503974079</v>
       </c>
       <c r="AP45" t="n" s="85">
         <v>0.7920557543657963</v>
@@ -6922,7 +6922,7 @@
         <v>0.9812986083009329</v>
       </c>
       <c r="AR45" t="n" s="85">
-        <v>0.9174741601424836</v>
+        <v>0.9098636196730215</v>
       </c>
     </row>
     <row r="46">
@@ -7029,7 +7029,7 @@
         <v>0.5879246355521485</v>
       </c>
       <c r="AL46" t="n" s="85">
-        <v>0.4683890302117981</v>
+        <v>0.385408702775837</v>
       </c>
       <c r="AM46" t="n" s="85">
         <v>0.5471650708091814</v>
@@ -7038,7 +7038,7 @@
         <v>0.4856947731642369</v>
       </c>
       <c r="AO46" t="n" s="85">
-        <v>0.11669421927579933</v>
+        <v>0.08431698176686352</v>
       </c>
       <c r="AP46" t="n" s="85">
         <v>0.3768722702273253</v>
@@ -7047,7 +7047,7 @@
         <v>0.11458189095188505</v>
       </c>
       <c r="AR46" t="n" s="85">
-        <v>0.006403038632525783</v>
+        <v>0.004614043435217824</v>
       </c>
     </row>
     <row r="47">
@@ -7154,7 +7154,7 @@
         <v>0.7150630484170494</v>
       </c>
       <c r="AL47" t="n" s="85">
-        <v>0.8977553242381122</v>
+        <v>0.8806953265243866</v>
       </c>
       <c r="AM47" t="n" s="85">
         <v>0.7001205233100919</v>
@@ -7163,7 +7163,7 @@
         <v>0.8606301808503151</v>
       </c>
       <c r="AO47" t="n" s="85">
-        <v>0.9470636954385635</v>
+        <v>0.9370476466528305</v>
       </c>
       <c r="AP47" t="n" s="85">
         <v>0.6838983613288215</v>
@@ -7172,7 +7172,7 @@
         <v>0.6530101470360072</v>
       </c>
       <c r="AR47" t="n" s="85">
-        <v>0.6186589142997264</v>
+        <v>0.5792095993728579</v>
       </c>
     </row>
     <row r="48">
@@ -7279,7 +7279,7 @@
         <v>0.6367600620952057</v>
       </c>
       <c r="AL48" t="n" s="85">
-        <v>0.7806243252810707</v>
+        <v>0.7533373063900111</v>
       </c>
       <c r="AM48" t="n" s="85">
         <v>0.6705534055120294</v>
@@ -7288,7 +7288,7 @@
         <v>0.9038594400665375</v>
       </c>
       <c r="AO48" t="n" s="85">
-        <v>0.9426517014903082</v>
+        <v>0.9353623460649227</v>
       </c>
       <c r="AP48" t="n" s="85">
         <v>0.5084768766465411</v>
@@ -7297,7 +7297,7 @@
         <v>0.5602667080892546</v>
       </c>
       <c r="AR48" t="n" s="85">
-        <v>0.3990689620657326</v>
+        <v>0.3689152167969226</v>
       </c>
     </row>
     <row r="49">
@@ -7404,7 +7404,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL49" t="n" s="85">
-        <v>0.7369318335338857</v>
+        <v>0.6937718497059077</v>
       </c>
       <c r="AM49" t="n" s="85">
         <v>0.6645296339106109</v>
@@ -7413,7 +7413,7 @@
         <v>0.9437366031299895</v>
       </c>
       <c r="AO49" t="n" s="85">
-        <v>0.8961863613465327</v>
+        <v>0.8757263464907818</v>
       </c>
       <c r="AP49" t="n" s="85">
         <v>0.6416500389648642</v>
@@ -7422,7 +7422,7 @@
         <v>0.7669464717366731</v>
       </c>
       <c r="AR49" t="n" s="85">
-        <v>0.3217011122804762</v>
+        <v>0.2807576907600326</v>
       </c>
     </row>
     <row r="50">
@@ -7529,7 +7529,7 @@
         <v>0.6836335651409619</v>
       </c>
       <c r="AL50" t="n" s="85">
-        <v>0.6110670940631457</v>
+        <v>0.5523119850731935</v>
       </c>
       <c r="AM50" t="n" s="85">
         <v>0.6182508682526695</v>
@@ -7538,7 +7538,7 @@
         <v>0.8531628244553993</v>
       </c>
       <c r="AO50" t="n" s="85">
-        <v>0.7305301189120577</v>
+        <v>0.6798186955165073</v>
       </c>
       <c r="AP50" t="n" s="85">
         <v>0.5465855550343887</v>
@@ -7547,7 +7547,7 @@
         <v>0.5169265255456522</v>
       </c>
       <c r="AR50" t="n" s="85">
-        <v>0.12571404836525543</v>
+        <v>0.1030622967501792</v>
       </c>
     </row>
     <row r="51">
@@ -7654,7 +7654,7 @@
         <v>0.5870561348562618</v>
       </c>
       <c r="AL51" t="n" s="85">
-        <v>0.8949544725013994</v>
+        <v>0.8737607903833307</v>
       </c>
       <c r="AM51" t="n" s="85">
         <v>0.6191368038322309</v>
@@ -7663,7 +7663,7 @@
         <v>0.4660220806808205</v>
       </c>
       <c r="AO51" t="n" s="85">
-        <v>0.6531845613606057</v>
+        <v>0.6050200476515102</v>
       </c>
       <c r="AP51" t="n" s="85">
         <v>0.32419944536767303</v>
@@ -7672,7 +7672,7 @@
         <v>0.12071982479374296</v>
       </c>
       <c r="AR51" t="n" s="85">
-        <v>0.10437076913313949</v>
+        <v>0.0872081634631402</v>
       </c>
     </row>
     <row r="52">
@@ -7779,7 +7779,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL52" t="n" s="85">
-        <v>0.7687691507676496</v>
+        <v>0.7414389381330282</v>
       </c>
       <c r="AM52" t="n" s="85">
         <v>0.7167824620187028</v>
@@ -7788,7 +7788,7 @@
         <v>0.9788956264194634</v>
       </c>
       <c r="AO52" t="n" s="85">
-        <v>0.9662231836647652</v>
+        <v>0.9615368060505801</v>
       </c>
       <c r="AP52" t="n" s="85">
         <v>0.6898269026071807</v>
@@ -7797,7 +7797,7 @@
         <v>0.8895712324599767</v>
       </c>
       <c r="AR52" t="n" s="85">
-        <v>0.5765686251916657</v>
+        <v>0.5434005825125889</v>
       </c>
     </row>
     <row r="53">
@@ -8154,7 +8154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL55" t="n" s="85">
-        <v>0.8664383586432679</v>
+        <v>0.8623797747807241</v>
       </c>
       <c r="AM55" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -8163,7 +8163,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO55" t="n" s="85">
-        <v>0.9987425825573912</v>
+        <v>0.9987038062011</v>
       </c>
       <c r="AP55" t="n" s="85">
         <v>0.9223780837088266</v>
@@ -8172,7 +8172,7 @@
         <v>0.9996727354827136</v>
       </c>
       <c r="AR55" t="n" s="85">
-        <v>0.999718228623264</v>
+        <v>0.9997106722395459</v>
       </c>
     </row>
     <row r="56">
@@ -8404,7 +8404,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL57" t="n" s="85">
-        <v>0.9310802861941907</v>
+        <v>0.9285089378600737</v>
       </c>
       <c r="AM57" t="n" s="85">
         <v>0.7760576349730679</v>
@@ -8413,7 +8413,7 @@
         <v>0.9945565482051875</v>
       </c>
       <c r="AO57" t="n" s="85">
-        <v>0.9999384402269839</v>
+        <v>0.999936503041755</v>
       </c>
       <c r="AP57" t="n" s="85">
         <v>0.8261011383994442</v>
@@ -8422,7 +8422,7 @@
         <v>0.9944520939244494</v>
       </c>
       <c r="AR57" t="n" s="85">
-        <v>0.9994589351346649</v>
+        <v>0.9994396536478254</v>
       </c>
     </row>
     <row r="58">
@@ -8654,7 +8654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL59" t="n" s="85">
-        <v>0.9853894238704851</v>
+        <v>0.984210581766564</v>
       </c>
       <c r="AM59" t="n" s="85">
         <v>0.727816663035228</v>
@@ -8663,7 +8663,7 @@
         <v>0.9853995145756784</v>
       </c>
       <c r="AO59" t="n" s="85">
-        <v>0.9999990738269929</v>
+        <v>0.9999990106170109</v>
       </c>
       <c r="AP59" t="n" s="85">
         <v>0.7907068840349833</v>
@@ -8672,7 +8672,7 @@
         <v>0.9909322903101075</v>
       </c>
       <c r="AR59" t="n" s="85">
-        <v>0.9999870503052578</v>
+        <v>0.9999861665184807</v>
       </c>
     </row>
     <row r="60">
@@ -8904,7 +8904,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL61" t="n" s="85">
-        <v>0.9668072203775561</v>
+        <v>0.9656777624259012</v>
       </c>
       <c r="AM61" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -8913,7 +8913,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO61" t="n" s="85">
-        <v>0.9999979322114689</v>
+        <v>0.9999978683621883</v>
       </c>
       <c r="AP61" t="n" s="85">
         <v>0.9223780837088266</v>
@@ -8922,7 +8922,7 @@
         <v>0.9997842161020349</v>
       </c>
       <c r="AR61" t="n" s="85">
-        <v>0.9999987290006834</v>
+        <v>0.9999986949059302</v>
       </c>
     </row>
     <row r="62">
@@ -9154,7 +9154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL63" t="n" s="85">
-        <v>0.9868429492949843</v>
+        <v>0.9863856510775144</v>
       </c>
       <c r="AM63" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -9163,7 +9163,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO63" t="n" s="85">
-        <v>0.9999998727999739</v>
+        <v>0.9999998688722771</v>
       </c>
       <c r="AP63" t="n" s="85">
         <v>0.8807163509401442</v>
@@ -9404,7 +9404,7 @@
         <v>0.76664393192103</v>
       </c>
       <c r="AL65" t="n" s="85">
-        <v>0.981813909710321</v>
+        <v>0.9811851502625378</v>
       </c>
       <c r="AM65" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -9413,7 +9413,7 @@
         <v>0.9911087308723101</v>
       </c>
       <c r="AO65" t="n" s="85">
-        <v>0.9999991544561356</v>
+        <v>0.9999991283473558</v>
       </c>
       <c r="AP65" t="n" s="85">
         <v>0.9493238177522929</v>
@@ -9529,7 +9529,7 @@
         <v>0.7519068531008991</v>
       </c>
       <c r="AL66" t="n" s="85">
-        <v>0.7706043544687291</v>
+        <v>0.7309518830868345</v>
       </c>
       <c r="AM66" t="n" s="85">
         <v>0.657529030629395</v>
@@ -9538,7 +9538,7 @@
         <v>0.9342146129950122</v>
       </c>
       <c r="AO66" t="n" s="85">
-        <v>0.9680694093984528</v>
+        <v>0.9611624506340425</v>
       </c>
       <c r="AP66" t="n" s="85">
         <v>0.614817806634119</v>
@@ -9547,7 +9547,7 @@
         <v>0.746876632815806</v>
       </c>
       <c r="AR66" t="n" s="85">
-        <v>0.602613003133194</v>
+        <v>0.5551801802487989</v>
       </c>
     </row>
     <row r="67">
@@ -9654,7 +9654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL67" t="n" s="85">
-        <v>0.7658962004074767</v>
+        <v>0.7596299927855801</v>
       </c>
       <c r="AM67" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -9663,7 +9663,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO67" t="n" s="85">
-        <v>0.984273401502964</v>
+        <v>0.9837956627027826</v>
       </c>
       <c r="AP67" t="n" s="85">
         <v>0.9644924787757004</v>
@@ -9672,7 +9672,7 @@
         <v>0.9999727469752472</v>
       </c>
       <c r="AR67" t="n" s="85">
-        <v>0.9997727007132404</v>
+        <v>0.9997666047898545</v>
       </c>
     </row>
     <row r="68">
@@ -9779,7 +9779,7 @@
         <v>0.7625133261565671</v>
       </c>
       <c r="AL68" t="n" s="85">
-        <v>0.9588510788531218</v>
+        <v>0.9558290762666343</v>
       </c>
       <c r="AM68" t="n" s="85">
         <v>0.7473901734439874</v>
@@ -9788,7 +9788,7 @@
         <v>0.9858494933866508</v>
       </c>
       <c r="AO68" t="n" s="85">
-        <v>0.9999937963486234</v>
+        <v>0.9999933767657311</v>
       </c>
       <c r="AP68" t="n" s="85">
         <v>0.9063301225826165</v>
@@ -9904,7 +9904,7 @@
         <v>0.7302906829933843</v>
       </c>
       <c r="AL69" t="n" s="85">
-        <v>0.9003001208029531</v>
+        <v>0.8864182980199282</v>
       </c>
       <c r="AM69" t="n" s="85">
         <v>0.7054547306387964</v>
@@ -9913,7 +9913,7 @@
         <v>0.9294903043461903</v>
       </c>
       <c r="AO69" t="n" s="85">
-        <v>0.9697380917218938</v>
+        <v>0.9656002032004207</v>
       </c>
       <c r="AP69" t="n" s="85">
         <v>0.5840859212648432</v>
@@ -9922,7 +9922,7 @@
         <v>0.7123840570775128</v>
       </c>
       <c r="AR69" t="n" s="85">
-        <v>0.6621611552809213</v>
+        <v>0.6318807225066225</v>
       </c>
     </row>
     <row r="70">
@@ -10029,7 +10029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL70" t="n" s="85">
-        <v>0.8721686924248325</v>
+        <v>0.8541408045543184</v>
       </c>
       <c r="AM70" t="n" s="85">
         <v>0.707320422092134</v>
@@ -10038,7 +10038,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO70" t="n" s="85">
-        <v>0.9987433246991233</v>
+        <v>0.9985727983408498</v>
       </c>
       <c r="AP70" t="n" s="85">
         <v>0.8416687116064827</v>
@@ -10047,7 +10047,7 @@
         <v>0.9944043953522667</v>
       </c>
       <c r="AR70" t="n" s="85">
-        <v>0.9977780727547323</v>
+        <v>0.9974766176690031</v>
       </c>
     </row>
     <row r="71">
@@ -10154,7 +10154,7 @@
         <v>0.6643250725525586</v>
       </c>
       <c r="AL71" t="n" s="85">
-        <v>0.7536353365105461</v>
+        <v>0.7357536200433011</v>
       </c>
       <c r="AM71" t="n" s="85">
         <v>0.6778977090223718</v>
@@ -10163,7 +10163,7 @@
         <v>0.9588468597279227</v>
       </c>
       <c r="AO71" t="n" s="85">
-        <v>0.9704541082829706</v>
+        <v>0.9672591162229595</v>
       </c>
       <c r="AP71" t="n" s="85">
         <v>0.8465508508272007</v>
@@ -10172,7 +10172,7 @@
         <v>0.9973182021296827</v>
       </c>
       <c r="AR71" t="n" s="85">
-        <v>0.9943187370170553</v>
+        <v>0.9937642353728096</v>
       </c>
     </row>
     <row r="72">
@@ -10279,7 +10279,7 @@
         <v>0.7519068531008991</v>
       </c>
       <c r="AL72" t="n" s="85">
-        <v>0.9422067192174449</v>
+        <v>0.931426359331366</v>
       </c>
       <c r="AM72" t="n" s="85">
         <v>0.6795559276739281</v>
@@ -10288,7 +10288,7 @@
         <v>0.956733472882373</v>
       </c>
       <c r="AO72" t="n" s="85">
-        <v>0.9999716054403608</v>
+        <v>0.9999665051207284</v>
       </c>
       <c r="AP72" t="n" s="85">
         <v>0.7333510418900453</v>
@@ -10297,7 +10297,7 @@
         <v>0.96559202561442</v>
       </c>
       <c r="AR72" t="n" s="85">
-        <v>0.9996041189039734</v>
+        <v>0.9995349341573833</v>
       </c>
     </row>
     <row r="73">
@@ -10404,7 +10404,7 @@
         <v>0.7519068531008991</v>
       </c>
       <c r="AL73" t="n" s="85">
-        <v>0.7519764333870165</v>
+        <v>0.7292842455407885</v>
       </c>
       <c r="AM73" t="n" s="85">
         <v>0.7304177389343337</v>
@@ -10413,7 +10413,7 @@
         <v>0.9788101103879447</v>
       </c>
       <c r="AO73" t="n" s="85">
-        <v>0.918048369676646</v>
+        <v>0.9104478140362326</v>
       </c>
       <c r="AP73" t="n" s="85">
         <v>0.6656387957950216</v>
@@ -10422,7 +10422,7 @@
         <v>0.8671616130381021</v>
       </c>
       <c r="AR73" t="n" s="85">
-        <v>0.355229413712843</v>
+        <v>0.33243631732770107</v>
       </c>
     </row>
     <row r="74">
@@ -10654,7 +10654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL75" t="n" s="85">
-        <v>0.952059847777385</v>
+        <v>0.9504542939878339</v>
       </c>
       <c r="AM75" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -10663,7 +10663,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO75" t="n" s="85">
-        <v>0.9999881165502128</v>
+        <v>0.9999877496161523</v>
       </c>
       <c r="AP75" t="n" s="85">
         <v>0.9472809491787516</v>
@@ -10779,7 +10779,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL76" t="n" s="85">
-        <v>0.8386379788672101</v>
+        <v>0.822694008273362</v>
       </c>
       <c r="AM76" t="n" s="85">
         <v>0.727816663035228</v>
@@ -10788,7 +10788,7 @@
         <v>0.9844667651371803</v>
       </c>
       <c r="AO76" t="n" s="85">
-        <v>0.9949060418854783</v>
+        <v>0.9943932507055524</v>
       </c>
       <c r="AP76" t="n" s="85">
         <v>0.8456333365794474</v>
@@ -10904,7 +10904,7 @@
         <v>0.7519068531008991</v>
       </c>
       <c r="AL77" t="n" s="85">
-        <v>0.7300164909773718</v>
+        <v>0.6924448293700792</v>
       </c>
       <c r="AM77" t="n" s="85">
         <v>0.6850117423874821</v>
@@ -10913,7 +10913,7 @@
         <v>0.943169809187536</v>
       </c>
       <c r="AO77" t="n" s="85">
-        <v>0.7945115067584476</v>
+        <v>0.7662227276939991</v>
       </c>
       <c r="AP77" t="n" s="85">
         <v>0.6160286879589093</v>
@@ -10922,7 +10922,7 @@
         <v>0.7364947332547871</v>
       </c>
       <c r="AR77" t="n" s="85">
-        <v>0.16857979607571758</v>
+        <v>0.1471448549958374</v>
       </c>
     </row>
     <row r="78">
@@ -11029,7 +11029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL78" t="n" s="85">
-        <v>0.9901870311009825</v>
+        <v>0.9897967497450127</v>
       </c>
       <c r="AM78" t="n" s="85">
         <v>0.6645296339106109</v>
@@ -11038,7 +11038,7 @@
         <v>0.9598025361039877</v>
       </c>
       <c r="AO78" t="n" s="85">
-        <v>0.9997224510305655</v>
+        <v>0.9997125575438063</v>
       </c>
       <c r="AP78" t="n" s="85">
         <v>0.6416500389648642</v>
@@ -11047,7 +11047,7 @@
         <v>0.9077312839006109</v>
       </c>
       <c r="AR78" t="n" s="85">
-        <v>0.9964086426917369</v>
+        <v>0.9962960400093837</v>
       </c>
     </row>
     <row r="79">
@@ -11154,7 +11154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL79" t="n" s="85">
-        <v>0.9673352293394418</v>
+        <v>0.9647518065810279</v>
       </c>
       <c r="AM79" t="n" s="85">
         <v>0.7579861428534004</v>
@@ -11163,7 +11163,7 @@
         <v>0.9877930178662839</v>
       </c>
       <c r="AO79" t="n" s="85">
-        <v>0.9999818072319444</v>
+        <v>0.9999806441707039</v>
       </c>
       <c r="AP79" t="n" s="85">
         <v>0.7062308513534876</v>
@@ -11172,7 +11172,7 @@
         <v>0.9549381596048827</v>
       </c>
       <c r="AR79" t="n" s="85">
-        <v>0.999005402620894</v>
+        <v>0.9989332880819967</v>
       </c>
     </row>
     <row r="80">
@@ -11279,7 +11279,7 @@
         <v>0.744837881900445</v>
       </c>
       <c r="AL80" t="n" s="85">
-        <v>0.7481904620521626</v>
+        <v>0.726226970804761</v>
       </c>
       <c r="AM80" t="n" s="85">
         <v>0.719451495502634</v>
@@ -11288,7 +11288,7 @@
         <v>0.9811285780703116</v>
       </c>
       <c r="AO80" t="n" s="85">
-        <v>0.9757286590844542</v>
+        <v>0.9733370838380674</v>
       </c>
       <c r="AP80" t="n" s="85">
         <v>0.7736827388617299</v>
@@ -11297,7 +11297,7 @@
         <v>0.9765477849413992</v>
       </c>
       <c r="AR80" t="n" s="85">
-        <v>0.9007477469907154</v>
+        <v>0.8921668852642137</v>
       </c>
     </row>
     <row r="81">
@@ -11404,7 +11404,7 @@
         <v>0.6388437664820833</v>
       </c>
       <c r="AL81" t="n" s="85">
-        <v>0.9270058685812131</v>
+        <v>0.9174430954241548</v>
       </c>
       <c r="AM81" t="n" s="85">
         <v>0.6554221043827837</v>
@@ -11413,7 +11413,7 @@
         <v>0.9295777064018846</v>
       </c>
       <c r="AO81" t="n" s="85">
-        <v>0.9999526083782986</v>
+        <v>0.9999456523500332</v>
       </c>
       <c r="AP81" t="n" s="85">
         <v>0.7782889303183351</v>
@@ -11529,7 +11529,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL82" t="n" s="85">
-        <v>0.8230688415150504</v>
+        <v>0.7997066711212498</v>
       </c>
       <c r="AM82" t="n" s="85">
         <v>0.707320422092134</v>
@@ -11538,7 +11538,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO82" t="n" s="85">
-        <v>0.9908408542509415</v>
+        <v>0.9896091473417941</v>
       </c>
       <c r="AP82" t="n" s="85">
         <v>0.6814231609075975</v>
@@ -11547,7 +11547,7 @@
         <v>0.896345078071709</v>
       </c>
       <c r="AR82" t="n" s="85">
-        <v>0.8412290498473042</v>
+        <v>0.8234464016519846</v>
       </c>
     </row>
     <row r="83">
@@ -11654,7 +11654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL83" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM83" t="n" s="85">
         <v>0.707320422092134</v>
@@ -11663,7 +11663,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO83" t="n" s="85">
-        <v>0.9630705840175987</v>
+        <v>0.9582616892691526</v>
       </c>
       <c r="AP83" t="n" s="85">
         <v>0.6814231609075975</v>
@@ -11672,7 +11672,7 @@
         <v>0.8807437681678696</v>
       </c>
       <c r="AR83" t="n" s="85">
-        <v>0.5592651002836869</v>
+        <v>0.5276349638751165</v>
       </c>
     </row>
     <row r="84">
@@ -12029,7 +12029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL86" t="n" s="85">
-        <v>0.9798534266880342</v>
+        <v>0.9791583250316072</v>
       </c>
       <c r="AM86" t="n" s="85">
         <v>0.7473901734439874</v>
@@ -12038,7 +12038,7 @@
         <v>0.9909091299234896</v>
       </c>
       <c r="AO86" t="n" s="85">
-        <v>0.9999974223608312</v>
+        <v>0.9999973427683982</v>
       </c>
       <c r="AP86" t="n" s="85">
         <v>0.808899444460787</v>
@@ -12047,7 +12047,7 @@
         <v>0.9945079305566346</v>
       </c>
       <c r="AR86" t="n" s="85">
-        <v>0.9999717041501914</v>
+        <v>0.9999709451307074</v>
       </c>
     </row>
     <row r="87">
@@ -12154,7 +12154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL87" t="n" s="85">
-        <v>0.996821304635748</v>
+        <v>0.9966940006174715</v>
       </c>
       <c r="AM87" t="n" s="85">
         <v>0.6863210698113149</v>
@@ -12163,7 +12163,7 @@
         <v>0.972102425601109</v>
       </c>
       <c r="AO87" t="n" s="85">
-        <v>0.9999995202631915</v>
+        <v>0.9999995031576261</v>
       </c>
       <c r="AP87" t="n" s="85">
         <v>0.7552136567814128</v>
@@ -12279,7 +12279,7 @@
         <v>0.6156463851507957</v>
       </c>
       <c r="AL88" t="n" s="85">
-        <v>0.9086752943289713</v>
+        <v>0.8969779620648032</v>
       </c>
       <c r="AM88" t="n" s="85">
         <v>0.6406950162278685</v>
@@ -12288,7 +12288,7 @@
         <v>0.9430914044791802</v>
       </c>
       <c r="AO88" t="n" s="85">
-        <v>0.9999614563194692</v>
+        <v>0.9999557989133254</v>
       </c>
       <c r="AP88" t="n" s="85">
         <v>0.5430080119632089</v>
@@ -12297,7 +12297,7 @@
         <v>0.8159170198867867</v>
       </c>
       <c r="AR88" t="n" s="85">
-        <v>0.997512976071133</v>
+        <v>0.9971722937688606</v>
       </c>
     </row>
     <row r="89">
@@ -12404,7 +12404,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL89" t="n" s="85">
-        <v>0.9749465944984121</v>
+        <v>0.9730734618353877</v>
       </c>
       <c r="AM89" t="n" s="85">
         <v>0.7473901734439874</v>
@@ -12413,7 +12413,7 @@
         <v>0.9859969685420584</v>
       </c>
       <c r="AO89" t="n" s="85">
-        <v>0.9999963240471612</v>
+        <v>0.9999960754240531</v>
       </c>
       <c r="AP89" t="n" s="85">
         <v>0.860050933629905</v>
@@ -12422,7 +12422,7 @@
         <v>0.9979397644527034</v>
       </c>
       <c r="AR89" t="n" s="85">
-        <v>0.9999913045923997</v>
+        <v>0.9999907903529178</v>
       </c>
     </row>
     <row r="90">
@@ -12654,7 +12654,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL91" t="n" s="85">
-        <v>0.8300823272279594</v>
+        <v>0.8074295558939698</v>
       </c>
       <c r="AM91" t="n" s="85">
         <v>0.707320422092134</v>
@@ -12663,7 +12663,7 @@
         <v>0.9664978604650211</v>
       </c>
       <c r="AO91" t="n" s="85">
-        <v>0.9679554474709922</v>
+        <v>0.9637587154695083</v>
       </c>
       <c r="AP91" t="n" s="85">
         <v>0.6594090256136997</v>
@@ -12672,7 +12672,7 @@
         <v>0.8435007957116653</v>
       </c>
       <c r="AR91" t="n" s="85">
-        <v>0.6196887389854426</v>
+        <v>0.5892098427776498</v>
       </c>
     </row>
     <row r="92">
@@ -12779,7 +12779,7 @@
         <v>0.7519068531008991</v>
       </c>
       <c r="AL92" t="n" s="85">
-        <v>0.9943899261034891</v>
+        <v>0.9941658173768825</v>
       </c>
       <c r="AM92" t="n" s="85">
         <v>0.7008107435423191</v>
@@ -12788,7 +12788,7 @@
         <v>0.9781310117125223</v>
       </c>
       <c r="AO92" t="n" s="85">
-        <v>0.9999994152327548</v>
+        <v>0.99999939682993</v>
       </c>
       <c r="AP92" t="n" s="85">
         <v>0.7503696768178982</v>
@@ -12904,7 +12904,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL93" t="n" s="85">
-        <v>0.914133734478131</v>
+        <v>0.9109905648919193</v>
       </c>
       <c r="AM93" t="n" s="85">
         <v>0.776057634973068</v>
@@ -12913,7 +12913,7 @@
         <v>0.9925181450713921</v>
       </c>
       <c r="AO93" t="n" s="85">
-        <v>0.9985172729914916</v>
+        <v>0.9984706823991292</v>
       </c>
       <c r="AP93" t="n" s="85">
         <v>0.7279824500052295</v>
@@ -12922,7 +12922,7 @@
         <v>0.9613885651772134</v>
       </c>
       <c r="AR93" t="n" s="85">
-        <v>0.9726974192037716</v>
+        <v>0.9717514140712602</v>
       </c>
     </row>
     <row r="94">
@@ -13154,7 +13154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL95" t="n" s="85">
-        <v>0.872000047434496</v>
+        <v>0.868084737525739</v>
       </c>
       <c r="AM95" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -13163,7 +13163,7 @@
         <v>0.9915171873804934</v>
       </c>
       <c r="AO95" t="n" s="85">
-        <v>0.9949579221374041</v>
+        <v>0.9948030413799089</v>
       </c>
       <c r="AP95" t="n" s="85">
         <v>0.8717902228659076</v>
@@ -13172,7 +13172,7 @@
         <v>0.9976644568468619</v>
       </c>
       <c r="AR95" t="n" s="85">
-        <v>0.9953111784930713</v>
+        <v>0.9951860054639924</v>
       </c>
     </row>
     <row r="96">
@@ -13779,7 +13779,7 @@
         <v>0.7192007036983661</v>
       </c>
       <c r="AL100" t="n" s="85">
-        <v>0.8010919349713262</v>
+        <v>0.7772973342066432</v>
       </c>
       <c r="AM100" t="n" s="85">
         <v>0.6922307856265878</v>
@@ -13788,7 +13788,7 @@
         <v>0.9498970956883153</v>
       </c>
       <c r="AO100" t="n" s="85">
-        <v>0.9540893986394196</v>
+        <v>0.9480387148185893</v>
       </c>
       <c r="AP100" t="n" s="85">
         <v>0.7060672815379434</v>
@@ -13797,7 +13797,7 @@
         <v>0.9301128274816076</v>
       </c>
       <c r="AR100" t="n" s="85">
-        <v>0.8080476648972751</v>
+        <v>0.787048423551761</v>
       </c>
     </row>
     <row r="101">
@@ -13904,7 +13904,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL101" t="n" s="85">
-        <v>0.9668072203775561</v>
+        <v>0.9656777624259012</v>
       </c>
       <c r="AM101" t="n" s="85">
         <v>0.7682443951464764</v>
@@ -13913,7 +13913,7 @@
         <v>0.9939678511584628</v>
       </c>
       <c r="AO101" t="n" s="85">
-        <v>0.9999979322114689</v>
+        <v>0.9999978683621883</v>
       </c>
       <c r="AP101" t="n" s="85">
         <v>0.9223780837088266</v>
@@ -13922,7 +13922,7 @@
         <v>0.9997842161020349</v>
       </c>
       <c r="AR101" t="n" s="85">
-        <v>0.9999987290006834</v>
+        <v>0.9999986949059302</v>
       </c>
     </row>
     <row r="102">
@@ -14029,7 +14029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL102" t="n" s="85">
-        <v>0.8230688415150504</v>
+        <v>0.7997066711212498</v>
       </c>
       <c r="AM102" t="n" s="85">
         <v>0.707320422092134</v>
@@ -14038,7 +14038,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO102" t="n" s="85">
-        <v>0.9917409147449892</v>
+        <v>0.9906291017702715</v>
       </c>
       <c r="AP102" t="n" s="85">
         <v>0.7712721347904139</v>
@@ -14047,7 +14047,7 @@
         <v>0.9733734603256448</v>
       </c>
       <c r="AR102" t="n" s="85">
-        <v>0.9608845819163228</v>
+        <v>0.955799419881638</v>
       </c>
     </row>
     <row r="103">
@@ -14154,7 +14154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL103" t="n" s="85">
-        <v>0.785246135552161</v>
+        <v>0.7655017332516664</v>
       </c>
       <c r="AM103" t="n" s="85">
         <v>0.7278166630352281</v>
@@ -14163,7 +14163,7 @@
         <v>0.9848799757700849</v>
       </c>
       <c r="AO103" t="n" s="85">
-        <v>0.9780561476598132</v>
+        <v>0.9758882440541602</v>
       </c>
       <c r="AP103" t="n" s="85">
         <v>0.7055779669554744</v>
@@ -14172,7 +14172,7 @@
         <v>0.9245827917229675</v>
       </c>
       <c r="AR103" t="n" s="85">
-        <v>0.6992317354276305</v>
+        <v>0.6794292066858367</v>
       </c>
     </row>
     <row r="104">
@@ -14279,7 +14279,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL104" t="n" s="85">
-        <v>0.8230688415150504</v>
+        <v>0.7997066711212498</v>
       </c>
       <c r="AM104" t="n" s="85">
         <v>0.707320422092134</v>
@@ -14288,7 +14288,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO104" t="n" s="85">
-        <v>0.9908408542509415</v>
+        <v>0.9896091473417941</v>
       </c>
       <c r="AP104" t="n" s="85">
         <v>0.6814231609075975</v>
@@ -14297,7 +14297,7 @@
         <v>0.896345078071709</v>
       </c>
       <c r="AR104" t="n" s="85">
-        <v>0.8412290498473042</v>
+        <v>0.8234464016519846</v>
       </c>
     </row>
     <row r="105">
@@ -14404,7 +14404,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL105" t="n" s="85">
-        <v>0.9655438491669921</v>
+        <v>0.9642088861053989</v>
       </c>
       <c r="AM105" t="n" s="85">
         <v>0.776057634973068</v>
@@ -14413,7 +14413,7 @@
         <v>0.9842956431897485</v>
       </c>
       <c r="AO105" t="n" s="85">
-        <v>0.9988544888099676</v>
+        <v>0.9988184817533127</v>
       </c>
       <c r="AP105" t="n" s="85">
         <v>0.698223315281952</v>
@@ -14422,7 +14422,7 @@
         <v>0.9282765828392026</v>
       </c>
       <c r="AR105" t="n" s="85">
-        <v>0.9800200552563362</v>
+        <v>0.9793223779902475</v>
       </c>
     </row>
     <row r="106">
@@ -14529,7 +14529,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL106" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM106" t="n" s="85">
         <v>0.707320422092134</v>
@@ -14538,7 +14538,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO106" t="n" s="85">
-        <v>0.966607633694612</v>
+        <v>0.9622412702524245</v>
       </c>
       <c r="AP106" t="n" s="85">
         <v>0.7712721347904139</v>
@@ -14547,7 +14547,7 @@
         <v>0.9689644195416192</v>
       </c>
       <c r="AR106" t="n" s="85">
-        <v>0.8547206498180948</v>
+        <v>0.8381583732159099</v>
       </c>
     </row>
     <row r="107">
@@ -14654,7 +14654,7 @@
         <v>0.7229192174785907</v>
       </c>
       <c r="AL107" t="n" s="85">
-        <v>0.7682408553935299</v>
+        <v>0.7620179059887066</v>
       </c>
       <c r="AM107" t="n" s="85">
         <v>0.7607132191198142</v>
@@ -14663,7 +14663,7 @@
         <v>0.9892827229651038</v>
       </c>
       <c r="AO107" t="n" s="85">
-        <v>0.9907631616787915</v>
+        <v>0.9904806605718879</v>
       </c>
       <c r="AP107" t="n" s="85">
         <v>0.914911688080996</v>
@@ -14672,7 +14672,7 @@
         <v>0.9980166010781865</v>
       </c>
       <c r="AR107" t="n" s="85">
-        <v>0.9939355024061339</v>
+        <v>0.9937738339887402</v>
       </c>
     </row>
     <row r="108">
@@ -14904,7 +14904,7 @@
         <v>0.7591491460459175</v>
       </c>
       <c r="AL109" t="n" s="85">
-        <v>0.7108087184435563</v>
+        <v>0.6653093739592112</v>
       </c>
       <c r="AM109" t="n" s="85">
         <v>0.6570448711135778</v>
@@ -14913,7 +14913,7 @@
         <v>0.9322682151336915</v>
       </c>
       <c r="AO109" t="n" s="85">
-        <v>0.8762960841655416</v>
+        <v>0.8525609335810681</v>
       </c>
       <c r="AP109" t="n" s="85">
         <v>0.6154603759575523</v>
@@ -14922,7 +14922,7 @@
         <v>0.7174826990330706</v>
       </c>
       <c r="AR109" t="n" s="85">
-        <v>0.2679389138132768</v>
+        <v>0.23150259079803776</v>
       </c>
     </row>
     <row r="110">
@@ -15029,7 +15029,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL110" t="n" s="85">
-        <v>0.9167546909230245</v>
+        <v>0.90767963754193</v>
       </c>
       <c r="AM110" t="n" s="85">
         <v>0.7278166630352281</v>
@@ -15038,7 +15038,7 @@
         <v>0.9848799757700849</v>
       </c>
       <c r="AO110" t="n" s="85">
-        <v>0.9997754167415434</v>
+        <v>0.9997526868707105</v>
       </c>
       <c r="AP110" t="n" s="85">
         <v>0.7055779669554744</v>
@@ -15047,7 +15047,7 @@
         <v>0.9453341223878009</v>
       </c>
       <c r="AR110" t="n" s="85">
-        <v>0.9928292619209347</v>
+        <v>0.9921398462007851</v>
       </c>
     </row>
     <row r="111">
@@ -15154,7 +15154,7 @@
         <v>0.7822433239174831</v>
       </c>
       <c r="AL111" t="n" s="85">
-        <v>0.7659630784434579</v>
+        <v>0.7374657353775989</v>
       </c>
       <c r="AM111" t="n" s="85">
         <v>0.707320422092134</v>
@@ -15163,7 +15163,7 @@
         <v>0.9765196563067944</v>
       </c>
       <c r="AO111" t="n" s="85">
-        <v>0.9630705840175987</v>
+        <v>0.9582616892691526</v>
       </c>
       <c r="AP111" t="n" s="85">
         <v>0.6814231609075975</v>
@@ -15172,7 +15172,7 @@
         <v>0.8807437681678696</v>
       </c>
       <c r="AR111" t="n" s="85">
-        <v>0.5592651002836869</v>
+        <v>0.5276349638751165</v>
       </c>
     </row>
   </sheetData>
